--- a/CS460P2FirstsFollows.xlsx
+++ b/CS460P2FirstsFollows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\Programming\Python\CS460P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79B1187-4319-40B0-9B0E-864CDE04287D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BD05D-E602-4328-B6C6-B9E09179C409}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{4B486537-BCD8-4C3D-98BD-DAED09D3BA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="44">
   <si>
     <t>&lt;program&gt;</t>
   </si>
@@ -129,9 +129,6 @@
     <t>EOF_T, LPAREN_T</t>
   </si>
   <si>
-    <t>&lt;stmt_list&gt;, &lt;else_part&gt;</t>
-  </si>
-  <si>
     <t>&lt;stmt_pair&gt;, &lt;action&gt;</t>
   </si>
   <si>
@@ -148,6 +145,18 @@
   </si>
   <si>
     <t>RPAREN_T, LPAREN_T, IDENT_T, NUMLIT_T, STRLIT_T, CONS_T, IF_T, DISPLAY_T, NEWLINE_T, LISTOP_T, AND_T, OR_T, NOT_T, DEFINE_T, NUMBERP_T, SYMBOLP_T, LISTP_T, ZEROP_T, NULLP_T, STRINGP_T, PLUS_T, MINUS_T, DIV_T, MULT_T, MODULO_T, EQUALTO_T, GT_T, LT_T, GTE_T, LTE_T, QUOTE_T, COND_T, ELSE_T</t>
+  </si>
+  <si>
+    <t>&lt;stmt_list&gt;, &lt;else_part&gt;,&lt;stmt&gt;</t>
+  </si>
+  <si>
+    <t>LPAREN_T, EOF_T</t>
+  </si>
+  <si>
+    <t>LPAREN_T, RPAREN_T, IDENT_T, NUMLIT_T, STRLIT_T, CONS_T, IF_T, DISPLAY_T, NEWLINE_T, LISTOP_T, AND_T, OR_T, NOT_T, DEFINE_T, NUMBERP_T, SYMBOLP_T, LISTP_T, ZEROP_T, NULLP_T, STRINGP_T, PLUS_T, MINUS_T, DIV_T, MULT_T, MODULO_T, EQUALTO_T, GT_T, LT_T, GTE_T, LTE_T, QUOTE_T, COND_T, ELSE_T</t>
+  </si>
+  <si>
+    <t>IDENT_T, LPAREN_T, RPAREN_T, NUMLIT_T, STRLIT_T, QUOTE_T</t>
   </si>
 </sst>
 </file>
@@ -537,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4BABC-DBCF-4774-BFD0-99D953D152C7}">
-  <dimension ref="B3:Q72"/>
+  <dimension ref="B3:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +667,7 @@
         <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
@@ -776,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -887,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="2"/>
@@ -904,14 +913,14 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1"/>
       <c r="J50" t="s">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M50" s="1"/>
       <c r="O50" s="2"/>
@@ -927,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="K52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O52" s="4"/>
     </row>
@@ -948,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="K54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O54" s="2"/>
     </row>
@@ -966,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1012,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" s="1"/>
       <c r="G60" s="2"/>
@@ -1029,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" s="2"/>
       <c r="J62" t="s">
@@ -1045,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1"/>
       <c r="J64" t="s">
@@ -1102,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -1175,6 +1184,255 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
     </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="J77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="J81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="J83" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="J85" t="s">
+        <v>3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>43</v>
+      </c>
+      <c r="M85" s="1"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" t="s">
+        <v>43</v>
+      </c>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="J89" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>43</v>
+      </c>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>30</v>
+      </c>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="J93" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" t="s">
+        <v>30</v>
+      </c>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="J95" t="s">
+        <v>8</v>
+      </c>
+      <c r="K95" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="J97" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" t="s">
+        <v>30</v>
+      </c>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="J99" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" t="s">
+        <v>30</v>
+      </c>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" t="s">
+        <v>42</v>
+      </c>
+      <c r="M103" s="1"/>
+      <c r="O103" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C68:I72"/>
